--- a/raster-layer-statistics-modern.xlsx
+++ b/raster-layer-statistics-modern.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesfulford/Desktop/Harvard Remote Sensing/Final/arabah-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF74E30-D741-6147-A465-B9A2A0DC2213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$21</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>max</t>
   </si>
@@ -37,33 +53,84 @@
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>VARIANCE</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>GROUP_STDEV</t>
+  </si>
+  <si>
+    <t>T_SCORE</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>CONFIDENCE</t>
+  </si>
+  <si>
+    <t>Additive Change</t>
+  </si>
+  <si>
+    <t>Multiplicative Change</t>
+  </si>
+  <si>
+    <t>GROUP_2_MEAN</t>
+  </si>
+  <si>
+    <t>GROUP_2_STDEV</t>
+  </si>
+  <si>
+    <t>Comparing to fictional group with no change on average for the same number of years. Assuming February mean vegetation index data for this region would be normally distributed if there was no change, for sake of argument.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,27 +139,1138 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Modern Arabah</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> NDVI By Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0715441819772526E-2"/>
+                  <c:y val="8.650627004957713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>925.46325167037867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>935.49646971386107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>936.84992570579493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930.80178173719378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>950.03194650817238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>941.60215453194655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>936.69736353509097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>989.35350909766055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>938.54363163757887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>891.49535488665924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>925.57111028592647</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>925.81753994797475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>938.91839762611278</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>963.44014869888474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1005.486998514116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1112.1783463107161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>994.74962852897477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1058.5063103192281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1002.453600593912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1012.5475836431229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1ED-E848-BB8D-863BD84EDD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="680058352"/>
+        <c:axId val="679992368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="680058352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679992368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679992368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680058352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>296332</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27516</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA8D771-C332-264E-9AFE-CDE48139BF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,20 +1557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,528 +1594,851 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3247</v>
       </c>
-      <c r="C2" t="n">
-        <v>925.4632516703787</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>925.46325167037867</v>
+      </c>
+      <c r="D2">
         <v>57</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>236.183180104754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2493198</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>150222257.8619149</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <f>COUNT(J2:J21)</f>
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S(J3:J21)</f>
+        <v>49.416634832140552</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(J3:J21)</f>
+        <v>4.5833858933023306</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>L2</f>
+        <v>49.416634832140552</v>
+      </c>
+      <c r="P2">
+        <f>SQRT((POWER(L2, 2)/K2) + (POWER(O2, 2)/K2))</f>
+        <v>16.032873459939562</v>
+      </c>
+      <c r="Q2">
+        <f>ABS(M2-N2)/P2</f>
+        <v>0.2858742635719404</v>
+      </c>
+      <c r="R2" s="3">
+        <f>_xlfn.T.DIST(Q2,K2-2,TRUE)</f>
+        <v>0.61078568694539692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3406</v>
       </c>
-      <c r="C3" t="n">
-        <v>935.4964697138611</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>935.49646971386107</v>
+      </c>
+      <c r="D3">
         <v>88</v>
       </c>
-      <c r="E3" t="n">
-        <v>252.0686478725995</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>252.06864787259951</v>
+      </c>
+      <c r="F3">
         <v>2517421</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>170918842.7164624</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="J3" s="4">
+        <f>C3-C2</f>
+        <v>10.033218043482407</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2299</v>
       </c>
-      <c r="C4" t="n">
-        <v>936.8499257057949</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>936.84992570579493</v>
+      </c>
+      <c r="D4">
         <v>-194</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>229.8643561126182</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2522000</v>
       </c>
-      <c r="G4" t="n">
-        <v>142186041.3699855</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>142186041.36998549</v>
+      </c>
+      <c r="H4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J21" si="0">C4-C3</f>
+        <v>1.3534559919338562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3008</v>
       </c>
-      <c r="C5" t="n">
-        <v>930.8017817371938</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>930.80178173719378</v>
+      </c>
+      <c r="D5">
         <v>-928</v>
       </c>
-      <c r="E5" t="n">
-        <v>265.0469219446315</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>265.04692194463149</v>
+      </c>
+      <c r="F5">
         <v>2507580</v>
       </c>
-      <c r="G5" t="n">
-        <v>189182902.1514474</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>189182902.15144739</v>
+      </c>
+      <c r="H5">
         <v>2003</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.0481439686011527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2406</v>
       </c>
-      <c r="C6" t="n">
-        <v>950.0319465081724</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>950.03194650817238</v>
+      </c>
+      <c r="D6">
         <v>241</v>
       </c>
-      <c r="E6" t="n">
-        <v>237.7230050857692</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>237.72300508576919</v>
+      </c>
+      <c r="F6">
         <v>2557486</v>
       </c>
-      <c r="G6" t="n">
-        <v>152074403.2526003</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>152074403.25260031</v>
+      </c>
+      <c r="H6">
         <v>2004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>19.230164770978604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3547</v>
       </c>
-      <c r="C7" t="n">
-        <v>941.6021545319466</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>941.60215453194655</v>
+      </c>
+      <c r="D7">
         <v>-734</v>
       </c>
-      <c r="E7" t="n">
-        <v>277.4487173329923</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>277.44871733299232</v>
+      </c>
+      <c r="F7">
         <v>2534793</v>
       </c>
-      <c r="G7" t="n">
-        <v>207147234.9075037</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>207147234.90750369</v>
+      </c>
+      <c r="H7">
         <v>2005</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.4297919762258289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2826</v>
       </c>
-      <c r="C8" t="n">
-        <v>936.697363535091</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>936.69736353509097</v>
+      </c>
+      <c r="D8">
         <v>52</v>
       </c>
-      <c r="E8" t="n">
-        <v>216.086310516425</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>216.08631051642499</v>
+      </c>
+      <c r="F8">
         <v>2522526</v>
       </c>
-      <c r="G8" t="n">
-        <v>125698346.3512815</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>125698346.35128149</v>
+      </c>
+      <c r="H8">
         <v>2006</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.9047909968555814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3768</v>
       </c>
-      <c r="C9" t="n">
-        <v>989.3535090976605</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>989.35350909766055</v>
+      </c>
+      <c r="D9">
         <v>-117</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>291.3880073448799</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2664329</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>228569565.4593381</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>52.656145562569577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2827</v>
       </c>
-      <c r="C10" t="n">
-        <v>938.5436316375789</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>938.54363163757887</v>
+      </c>
+      <c r="D10">
         <v>-426</v>
       </c>
-      <c r="E10" t="n">
-        <v>235.5997248679028</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>235.59972486790281</v>
+      </c>
+      <c r="F10">
         <v>2527498</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>149425464.1232824</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>-50.80987746008168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2344</v>
       </c>
-      <c r="C11" t="n">
-        <v>891.4953548866592</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>891.49535488665924</v>
+      </c>
+      <c r="D11">
         <v>-901</v>
       </c>
-      <c r="E11" t="n">
-        <v>198.9887601129203</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>198.98876011292029</v>
+      </c>
+      <c r="F11">
         <v>2399014</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>106514656.691936</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>2009</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>-47.048276750919626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3247</v>
       </c>
-      <c r="C12" t="n">
-        <v>925.5711102859265</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>925.57111028592647</v>
+      </c>
+      <c r="D12">
         <v>57</v>
       </c>
-      <c r="E12" t="n">
-        <v>236.1606739172391</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>236.16067391723911</v>
+      </c>
+      <c r="F12">
         <v>2492563</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>150137857.6323798</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2010</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>34.075755399267223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3198</v>
       </c>
-      <c r="C13" t="n">
-        <v>925.8175399479748</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>925.81753994797475</v>
+      </c>
+      <c r="D13">
         <v>-213</v>
       </c>
-      <c r="E13" t="n">
-        <v>216.1005165165143</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>216.10051651651429</v>
+      </c>
+      <c r="F13">
         <v>2491375</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>125621475.4121145</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>2011</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24642966204828554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2568</v>
       </c>
-      <c r="C14" t="n">
-        <v>938.9183976261128</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>938.91839762611278</v>
+      </c>
+      <c r="D14">
         <v>158</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>197.3961670622401</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>2531324</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>105011340.0474779</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>2012</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>13.100857678138027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3512</v>
       </c>
-      <c r="C15" t="n">
-        <v>963.4401486988847</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>963.44014869888474</v>
+      </c>
+      <c r="D15">
         <v>80</v>
       </c>
-      <c r="E15" t="n">
-        <v>227.2239921413749</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>227.22399214137491</v>
+      </c>
+      <c r="F15">
         <v>2591654</v>
       </c>
-      <c r="G15" t="n">
-        <v>138835066.8639404</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>138835066.86394039</v>
+      </c>
+      <c r="H15">
         <v>2013</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>24.521751072771963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2850</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1005.486998514116</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16" t="n">
-        <v>238.6090955153094</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>238.60909551530941</v>
+      </c>
+      <c r="F16">
         <v>2706771</v>
       </c>
-      <c r="G16" t="n">
-        <v>153210202.5449483</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>153210202.54494831</v>
+      </c>
+      <c r="H16">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>42.046849815231212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3103</v>
       </c>
-      <c r="C17" t="n">
-        <v>1112.178346310716</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>1112.1783463107161</v>
+      </c>
+      <c r="D17">
         <v>48</v>
       </c>
-      <c r="E17" t="n">
-        <v>293.6955702558647</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>293.69557025586471</v>
+      </c>
+      <c r="F17">
         <v>2999545</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>232549109.2154257</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>106.6913477966001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2559</v>
       </c>
-      <c r="C18" t="n">
-        <v>994.7496285289748</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>994.74962852897477</v>
+      </c>
+      <c r="D18">
         <v>-316</v>
       </c>
-      <c r="E18" t="n">
-        <v>225.6236785318494</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>225.62367853184941</v>
+      </c>
+      <c r="F18">
         <v>2677866</v>
       </c>
-      <c r="G18" t="n">
-        <v>136988165.2496287</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>136988165.24962869</v>
+      </c>
+      <c r="H18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>-117.42871778174128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2675</v>
       </c>
-      <c r="C19" t="n">
-        <v>1058.506310319228</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>1058.5063103192281</v>
+      </c>
+      <c r="D19">
         <v>-532</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>240.6758998028385</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>2851616</v>
       </c>
-      <c r="G19" t="n">
-        <v>155991725.3927247</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>155991725.39272469</v>
+      </c>
+      <c r="H19">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>63.75668179025331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3289</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1002.453600593912</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-139</v>
       </c>
-      <c r="E20" t="n">
-        <v>270.4974208701278</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>270.49742087012783</v>
+      </c>
+      <c r="F20">
         <v>2700610</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>197043725.7000742</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>-56.052709725316049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3235</v>
       </c>
-      <c r="C21" t="n">
-        <v>1012.547583643123</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>1012.5475836431229</v>
+      </c>
+      <c r="D21">
         <v>-200</v>
       </c>
-      <c r="E21" t="n">
-        <v>249.0633673495226</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>249.06336734952259</v>
+      </c>
+      <c r="F21">
         <v>2723753</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>166805556.4092944</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>2019</v>
       </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>10.093983049210919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <f>COUNT(J24:J43)</f>
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f>_xlfn.STDEV.S(J25:J43)</f>
+        <v>4.8828980002458208E-2</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(J25:J43)</f>
+        <v>0.99639429009374758</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f>L24</f>
+        <v>4.8828980002458208E-2</v>
+      </c>
+      <c r="P24">
+        <f>SQRT((POWER(L24, 2)/K24) + (POWER(O24, 2)/K24))</f>
+        <v>1.5842213056728709E-2</v>
+      </c>
+      <c r="Q24">
+        <f>ABS(M24-N24)/P24</f>
+        <v>0.22760140223723069</v>
+      </c>
+      <c r="R24" s="3">
+        <f>_xlfn.T.DIST(Q24,K24-2,TRUE)</f>
+        <v>0.58866452991932272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J25" s="3">
+        <f>C2/C3</f>
+        <v>0.98927498032509809</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:J43" si="1">C3/C4</f>
+        <v>0.99855531184366142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0064977786756202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97975840197620856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.008952604808361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0052362600641309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94677721857923702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0541369370025218</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0527745618561313</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96318407627400926</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99973382480735662</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9860468623138483</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97454771725478917</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95818260218444695</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90406992893674532</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1180485163441514</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93976731062564445</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.055915515383562</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99003110252567783</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/raster-layer-statistics-modern.xlsx
+++ b/raster-layer-statistics-modern.xlsx
@@ -8,30 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesfulford/Desktop/Harvard Remote Sensing/Final/arabah-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF74E30-D741-6147-A465-B9A2A0DC2213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A410D-25E6-A040-BC7C-295BEA9B1314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$21</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>max</t>
   </si>
@@ -57,40 +47,22 @@
     <t>CHANGE</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>VARIANCE</t>
-  </si>
-  <si>
-    <t>STDEV</t>
-  </si>
-  <si>
-    <t>GROUP_STDEV</t>
-  </si>
-  <si>
-    <t>T_SCORE</t>
-  </si>
-  <si>
-    <t>MEAN</t>
-  </si>
-  <si>
-    <t>CONFIDENCE</t>
-  </si>
-  <si>
     <t>Additive Change</t>
   </si>
   <si>
     <t>Multiplicative Change</t>
   </si>
   <si>
-    <t>GROUP_2_MEAN</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>GROUP_2_STDEV</t>
+    <t>Mean NDVI (0.0001 scale)</t>
   </si>
   <si>
-    <t>Comparing to fictional group with no change on average for the same number of years. Assuming February mean vegetation index data for this region would be normally distributed if there was no change, for sake of argument.</t>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Relative Difference (normalized)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -177,6 +149,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,30 +1572,14 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1648,39 +1607,9 @@
         <v>2000</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <f>COUNT(J2:J21)</f>
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <f>_xlfn.STDEV.S(J3:J21)</f>
-        <v>49.416634832140552</v>
-      </c>
-      <c r="M2">
-        <f>AVERAGE(J3:J21)</f>
-        <v>4.5833858933023306</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>L2</f>
-        <v>49.416634832140552</v>
-      </c>
-      <c r="P2">
-        <f>SQRT((POWER(L2, 2)/K2) + (POWER(O2, 2)/K2))</f>
-        <v>16.032873459939562</v>
-      </c>
-      <c r="Q2">
-        <f>ABS(M2-N2)/P2</f>
-        <v>0.2858742635719404</v>
-      </c>
-      <c r="R2" s="3">
-        <f>_xlfn.T.DIST(Q2,K2-2,TRUE)</f>
-        <v>0.61078568694539692</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1711,9 +1640,6 @@
         <f>C3-C2</f>
         <v>10.033218043482407</v>
       </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2259,75 +2185,26 @@
       <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24">
-        <f>COUNT(J24:J43)</f>
-        <v>19</v>
-      </c>
-      <c r="L24">
-        <f>_xlfn.STDEV.S(J25:J43)</f>
-        <v>4.8828980002458208E-2</v>
-      </c>
-      <c r="M24">
-        <f>AVERAGE(J25:J43)</f>
-        <v>0.99639429009374758</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <f>L24</f>
-        <v>4.8828980002458208E-2</v>
-      </c>
-      <c r="P24">
-        <f>SQRT((POWER(L24, 2)/K24) + (POWER(O24, 2)/K24))</f>
-        <v>1.5842213056728709E-2</v>
-      </c>
-      <c r="Q24">
-        <f>ABS(M24-N24)/P24</f>
-        <v>0.22760140223723069</v>
-      </c>
-      <c r="R24" s="3">
-        <f>_xlfn.T.DIST(Q24,K24-2,TRUE)</f>
-        <v>0.58866452991932272</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J25" s="3">
         <f>C2/C3</f>
         <v>0.98927498032509809</v>
       </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J26" s="3">
@@ -2441,4 +2318,360 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACC13BB-8943-FD4C-B85F-51200528B310}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="F3:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>925.46325167037867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>935.49646971386107</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3-B2</f>
+        <v>10.033218043482407</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3/B2</f>
+        <v>1.0841292752978945E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(C3:C21)</f>
+        <v>4.5833858933023306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="6">
+        <v>936.84992570579493</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C21" si="0">B4-B3</f>
+        <v>1.3534559919338562</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D21" si="1">C4/B3</f>
+        <v>1.4467782998131846E-3</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(C3:C21)</f>
+        <v>49.416634832140552</v>
+      </c>
+      <c r="G4">
+        <f>F3/F4</f>
+        <v>9.2749858602700699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="6">
+        <v>930.80178173719378</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.0481439686011527</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>-6.4558301203308105E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="6">
+        <v>950.03194650817238</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>19.230164770978604</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0659785088817249E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="6">
+        <v>941.60215453194655</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.4297919762258289</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>-8.8731668521352339E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="6">
+        <v>936.69736353509097</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.9047909968555814</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.2089844667928403E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="6">
+        <v>989.35350909766055</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>52.656145562569577</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>5.6214683218329516E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="6">
+        <v>938.54363163757887</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>-50.80987746008168</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.1356645519378415E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="6">
+        <v>891.49535488665924</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>-47.048276750919626</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.0129024549268313E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="6">
+        <v>925.57111028592647</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>34.075755399267223</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8223144083122523E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="6">
+        <v>925.81753994797475</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24642966204828554</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6624606073990224E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="6">
+        <v>938.91839762611278</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>13.100857678138027</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4150582715114919E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="6">
+        <v>963.44014869888474</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>24.521751072771963</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6117020536364846E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1005.486998514116</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>42.046849815231212</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3642409829001853E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1112.1783463107161</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>106.6913477966001</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10610912717346516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="6">
+        <v>994.74962852897477</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>-117.42871778174128</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.10558443092447559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1058.5063103192281</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>63.75668179025331</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4093194872096623E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1002.453600593912</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>-56.052709725316049</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.2954535252993887E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1012.5475836431229</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>10.093983049210919</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0069277065023911E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>